--- a/03.Tasks/Tasks03.xlsx
+++ b/03.Tasks/Tasks03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\finance\03.Tasks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1CD0BD-2C43-4965-A80A-7F153CD169A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4295A7EC-0ABF-445A-A885-EDA89009B82A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>Аналитик собрал статистику за 36 прошедших месяцев, согласно которой вложение в акцию компании АВС позволило за месяц заработать 15% в 1 случае из 36 проанализированных месяцев, 10% - в 2 случаях, 5% - в 3 случаях, 0% в 23 случаях, потерять 5% в 6 случаях, и потерять 10% в оставшихся случаях. Определить ожидаемое значение доходности инвестиции.</t>
   </si>
@@ -270,6 +270,35 @@
         <scheme val="minor"/>
       </rPr>
       <t>16,73</t>
+    </r>
+  </si>
+  <si>
+    <t>Средняя доходность (матожидание)</t>
+  </si>
+  <si>
+    <t>Валотильность (стандартное отклонине)</t>
+  </si>
+  <si>
+    <t>Показатель Шарпа</t>
+  </si>
+  <si>
+    <t>Коэффициент Шарпа</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ответ: Коэффициент Шарпа для задачи 2 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0,87</t>
     </r>
   </si>
 </sst>
@@ -347,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -378,6 +407,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1792,7 +1824,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,54 +2263,54 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>1</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="6">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="6">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="8">
         <v>0.05</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="8">
         <v>-0.02</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="8">
         <v>0.12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="8">
         <v>-0.04</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="8">
         <v>0.11</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="8">
         <v>0.09</v>
       </c>
     </row>
@@ -2374,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BFAE89-3BC8-4317-BB74-9390D1D1CEA5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,9 +2417,102 @@
     <col min="1" max="1" width="49.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6">
+        <v>3</v>
+      </c>
+      <c r="E2" s="6">
+        <v>4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>5</v>
+      </c>
+      <c r="G2" s="6">
+        <v>6</v>
+      </c>
+      <c r="H2" s="6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0.05</v>
+      </c>
+      <c r="C3" s="8">
+        <v>-0.02</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>-0.04</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="4">
+        <f>AVERAGE(B3:H3)</f>
+        <v>5.4285714285714284E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="4">
+        <f>STDEV(B3:H3)</f>
+        <v>6.2411842588070532E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="4">
+        <f>B4/B5</f>
+        <v>0.86979829523716889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="18">
+        <f>B6</f>
+        <v>0.86979829523716889</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -2399,8 +2524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E7874A-A75B-4F2C-9F2E-A326377874A0}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2499,8 +2624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F58EBD1-F300-4DA0-A578-CADB9858CD45}">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
